--- a/data/income_statement/1digit/size/I_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/I_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>I-Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>I-Accommodation and food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1466 +841,1656 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2359589.34239</v>
+        <v>2530977.80355</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2640803.20528</v>
+        <v>2840124.4958</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2885345.72277</v>
+        <v>3076276.55878</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3097876.53119</v>
+        <v>3347386.912</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3246854.72309</v>
+        <v>3548958.76927</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3520246.52544</v>
+        <v>3900773.46857</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3950305.78455</v>
+        <v>4434904.73348</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4587282.09615</v>
+        <v>5203483.37755</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5608225.54128</v>
+        <v>6330186.73754</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9372415.47284</v>
+        <v>10239123.82082</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11778859.14024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13410468.10942</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12671944.794</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2273800.79348</v>
+        <v>2425954.22594</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2543548.30839</v>
+        <v>2721116.924670001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2765094.95695</v>
+        <v>2931272.08999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2978971.40097</v>
+        <v>3195857.55839</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3116398.91967</v>
+        <v>3380964.61635</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3410598.207840001</v>
+        <v>3744058.30901</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3818361.54402</v>
+        <v>4238868.663129999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4422653.32892</v>
+        <v>4973847.35784</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5390869.85951</v>
+        <v>6043956.491119999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8931451.081329999</v>
+        <v>9673580.835829997</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11302681.05501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12737528.16773</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11976129.047</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>29674.57725</v>
+        <v>31416.44774</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>35723.12688</v>
+        <v>37167.04033</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>38475.08741000001</v>
+        <v>40982.2266</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>37149.51642</v>
+        <v>40987.81223</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>52821.40121</v>
+        <v>57791.45409</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>28813.51772</v>
+        <v>39326.33194</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>32248.19543</v>
+        <v>43310.80191</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>41484.07561</v>
+        <v>45071.67948000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>60674.31977</v>
+        <v>66618.60466</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>184002.94762</v>
+        <v>200753.51903</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>154355.66809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>171689.80335</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>221824.493</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>56113.97166</v>
+        <v>73607.12987</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>61531.77000999999</v>
+        <v>81840.53080000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>81775.67840999999</v>
+        <v>104022.24219</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>81755.61379999999</v>
+        <v>110541.54138</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>77634.40221000001</v>
+        <v>110202.69883</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>80834.79988000001</v>
+        <v>117388.82762</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>99696.04509999999</v>
+        <v>152725.26844</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>123144.69162</v>
+        <v>184564.34023</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>156681.362</v>
+        <v>219611.64176</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>256961.44389</v>
+        <v>364789.46596</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>321822.41714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>501250.13834</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>473991.254</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5516.490030000001</v>
+        <v>7698.41703</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7756.12234</v>
+        <v>10199.35796</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6769.87943</v>
+        <v>9116.19327</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5977.401110000001</v>
+        <v>7722.429720000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4105.24397</v>
+        <v>5357.12576</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8020.22849</v>
+        <v>10133.3479</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>16304.25624</v>
+        <v>18036.82139</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>16931.83237</v>
+        <v>21178.45806</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10361.02829</v>
+        <v>18846.90797</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23031.96472</v>
+        <v>37347.67230999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>37829.96871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>67014.89187000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>129089.824</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4511.82339</v>
+        <v>6540.9076</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6689.2299</v>
+        <v>9105.217560000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5679.23564</v>
+        <v>7784.1912</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4689.7019</v>
+        <v>6390.417780000002</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3179.52968</v>
+        <v>4387.830889999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6348.153020000001</v>
+        <v>7322.422580000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13406.82511</v>
+        <v>14736.76093</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>15162.26959</v>
+        <v>18468.44563</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9070.925519999999</v>
+        <v>16830.24016</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>19146.26471</v>
+        <v>32900.42785</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>31260.29604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>59801.72374</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>85579.92600000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>839.36898</v>
+        <v>984.67331</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>591.2267099999999</v>
+        <v>615.3945</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>440.25</v>
+        <v>593.2353000000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>767.1648200000001</v>
+        <v>804.87035</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>565.5260900000001</v>
+        <v>574.07669</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1460.42799</v>
+        <v>1510.28084</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2393.94733</v>
+        <v>2434.66849</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1408.51459</v>
+        <v>1759.12844</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>675.7891800000001</v>
+        <v>1139.22609</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1449.44459</v>
+        <v>1880.28938</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3381.94647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3478.33742</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>38800.436</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>165.29766</v>
+        <v>172.83612</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>475.66573</v>
+        <v>478.7459</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>650.39379</v>
+        <v>738.7667700000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>520.53439</v>
+        <v>527.1415900000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>360.1882</v>
+        <v>395.21818</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>211.64748</v>
+        <v>1300.64448</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>503.4838</v>
+        <v>865.3919700000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>361.04819</v>
+        <v>950.8839900000002</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>614.31359</v>
+        <v>877.44172</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2436.25542</v>
+        <v>2566.95508</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3187.7262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3734.830710000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4709.462</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2354072.85236</v>
+        <v>2523279.38652</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2633047.08294</v>
+        <v>2829925.13784</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2878575.84334</v>
+        <v>3067160.36551</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3091899.13008</v>
+        <v>3339664.48228</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3242749.47912</v>
+        <v>3543601.64351</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3512226.29695</v>
+        <v>3890640.12067</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3934001.528309999</v>
+        <v>4416867.91209</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4570350.26378</v>
+        <v>5182304.919489998</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5597864.51299</v>
+        <v>6311339.82957</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9349383.50812</v>
+        <v>10201776.14851</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11741029.17153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13343453.21755</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12542854.97</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1768591.12565</v>
+        <v>1885044.39596</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1983172.00999</v>
+        <v>2117733.13617</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2178712.06625</v>
+        <v>2295773.11883</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2343394.23445</v>
+        <v>2500434.16834</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2467821.97685</v>
+        <v>2664231.54917</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2662916.37014</v>
+        <v>2933208.79182</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3006212.95428</v>
+        <v>3334574.83816</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3544613.84209</v>
+        <v>4005497.34752</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4326471.770260001</v>
+        <v>4846151.1855</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7240484.11899</v>
+        <v>7802076.487690001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9127732.84503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10241996.17636</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10031618.746</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>287204.01323</v>
+        <v>305072.54797</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>331543.08797</v>
+        <v>348454.71702</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>342213.62298</v>
+        <v>356204.14838</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>359212.13773</v>
+        <v>377112.1816900001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>381507.55477</v>
+        <v>398456.34819</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>430537.77692</v>
+        <v>451818.69208</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>495043.83854</v>
+        <v>533838.7868999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>588875.8385000001</v>
+        <v>645031.8014000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>683907.4555500001</v>
+        <v>753737.9567999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1141025.27681</v>
+        <v>1206448.93798</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1483906.82673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1654774.0798</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1611222.778</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>717594.62411</v>
+        <v>742816.6420699999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>764602.24863</v>
+        <v>796320.63743</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>797577.7873099999</v>
+        <v>828177.06921</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>866796.3493</v>
+        <v>903805.9439600001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>851237.1943300001</v>
+        <v>893851.8537999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>863911.54455</v>
+        <v>925257.12099</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>962515.2933400001</v>
+        <v>1037437.31786</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1098377.58407</v>
+        <v>1186233.22218</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1454267.36976</v>
+        <v>1543645.66637</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2601466.44049</v>
+        <v>2763419.63346</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3223386.63023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3541235.843449999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3846068.922</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>759656.79516</v>
+        <v>832399.98696</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>877582.1272699999</v>
+        <v>962015.2754800001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1033663.10622</v>
+        <v>1105401.46419</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1112179.03527</v>
+        <v>1212978.03771</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1227885.4169</v>
+        <v>1363469.5008</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1357927.59191</v>
+        <v>1543112.9095</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1532193.4256</v>
+        <v>1741325.04323</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1834151.24561</v>
+        <v>2146941.21375</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2162965.18921</v>
+        <v>2513901.89649</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3455761.23622</v>
+        <v>3778054.94884</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4374276.712619999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4983109.7992</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4495046.861</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4135.69315</v>
+        <v>4755.21896</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>9444.546119999999</v>
+        <v>10942.50624</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5257.54974</v>
+        <v>5990.43705</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5206.712149999999</v>
+        <v>6538.004980000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7191.810849999999</v>
+        <v>8453.846380000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>10539.45676</v>
+        <v>13020.06925</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>16460.3968</v>
+        <v>21973.69017</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>23209.17391</v>
+        <v>27291.11019</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>25331.75574</v>
+        <v>34865.66584</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>42231.16547</v>
+        <v>54152.96741</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>46162.67545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>62876.45391</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>79280.185</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>585481.72671</v>
+        <v>638234.9905600001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>649875.0729500001</v>
+        <v>712192.0016699999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>699863.77709</v>
+        <v>771387.2466800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>748504.89563</v>
+        <v>839230.31394</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>774927.5022699999</v>
+        <v>879370.09434</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>849309.9268100002</v>
+        <v>957431.32885</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>927788.57403</v>
+        <v>1082293.07393</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1025736.42169</v>
+        <v>1176807.57197</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1271392.74273</v>
+        <v>1465188.64407</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2108899.38913</v>
+        <v>2399699.66082</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2613296.3265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3101457.04119</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2511236.224</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>612007.02436</v>
+        <v>696489.88891</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>684913.14627</v>
+        <v>804859.1198400001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>768336.7032800001</v>
+        <v>895884.3483800001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>832228.5538299999</v>
+        <v>989698.10967</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>902291.91403</v>
+        <v>1088558.22324</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1005173.65777</v>
+        <v>1220465.73292</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1162791.10097</v>
+        <v>1432433.86737</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1371606.80726</v>
+        <v>1722581.24809</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1578827.78781</v>
+        <v>1984062.568</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2378733.68848</v>
+        <v>2823459.01726</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2907503.80413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3552713.32124</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3474576.117</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1744.94498</v>
+        <v>1760.65553</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1262.55146</v>
+        <v>1277.81731</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1108.55261</v>
+        <v>1138.85005</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1194.08761</v>
+        <v>1238.28428</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>715.52076</v>
+        <v>721.13133</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>856.6092200000001</v>
+        <v>945.5278500000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1627.19799</v>
+        <v>1827.18763</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2000.42622</v>
+        <v>3134.01796</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1412.55338</v>
+        <v>1455.8545</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2745.4905</v>
+        <v>5804.05431</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2010.0735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3155.05934</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4234.662</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>72665.50391</v>
+        <v>78893.07132999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>76590.63881999999</v>
+        <v>81528.99966</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>86997.02181999999</v>
+        <v>93822.89015000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>90833.85111</v>
+        <v>100859.37485</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>93875.62489000001</v>
+        <v>105713.79132</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>105506.63302</v>
+        <v>122108.75996</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>128787.75301</v>
+        <v>146515.36308</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>158793.74116</v>
+        <v>179525.84111</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>181350.15966</v>
+        <v>219338.35277</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>278355.08322</v>
+        <v>307863.96635</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>362383.36056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>400791.79907</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>399637.297</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>537596.57547</v>
+        <v>615836.1620499999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>607059.95599</v>
+        <v>722052.30287</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>680231.1288499999</v>
+        <v>800922.6081800001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>740200.61511</v>
+        <v>887600.4505399999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>807700.76838</v>
+        <v>982123.30059</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>898810.4155300001</v>
+        <v>1097411.44511</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1032376.14997</v>
+        <v>1284091.31666</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1210812.63988</v>
+        <v>1539921.38902</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1396065.07477</v>
+        <v>1763268.36073</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2097633.11476</v>
+        <v>2509790.9966</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2543110.37007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3148766.46283</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3070704.158</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-26525.29764999999</v>
+        <v>-58254.89835000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-35038.07332</v>
+        <v>-92667.11817</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-68472.92619</v>
+        <v>-124497.1017</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-83723.65820000001</v>
+        <v>-150467.79573</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-127364.41176</v>
+        <v>-209188.1289</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-155863.73096</v>
+        <v>-263034.40407</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-235002.52694</v>
+        <v>-350140.79344</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-345870.3855699999</v>
+        <v>-545773.67612</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-307435.04508</v>
+        <v>-518873.9239299999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-269834.29935</v>
+        <v>-423759.35644</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-294207.47763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-451256.2800499999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-963339.893</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19920.81956</v>
+        <v>84782.00332</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>21376.35859</v>
+        <v>121029.87541</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>26825.79278</v>
+        <v>203474.34768</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>25170.54408</v>
+        <v>214221.99026</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>29941.56442</v>
+        <v>278407.43748</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>25687.48383</v>
+        <v>382633.28575</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35604.20924</v>
+        <v>391417.9677599999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>58409.02807</v>
+        <v>473456.25875</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>45943.73604</v>
+        <v>635711.46523</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>135526.76713</v>
+        <v>1511451.04841</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>127361.2826</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1014080.9034</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1230743.221</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>276.85939</v>
+        <v>443.56195</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>543.89168</v>
+        <v>9434.4419</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>400.46691</v>
+        <v>1850.5955</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>144.99632</v>
+        <v>2066.72398</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>235.46992</v>
+        <v>10957.29678</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>116.43256</v>
+        <v>12329.6662</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>777.44837</v>
+        <v>6525.18371</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>645.14103</v>
+        <v>62818.03468</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>122.75762</v>
+        <v>24078.39428</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>823.39378</v>
+        <v>76063.37548999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>839.5744299999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>123393.27585</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>75169.997</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>7.029739999999999</v>
+        <v>61.72743999999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>178.2584</v>
+        <v>178.43411</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>57.14845</v>
+        <v>2142.53466</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>19.7055</v>
+        <v>37571.40531</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>391.7917</v>
+        <v>1801.25573</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>101.99232</v>
+        <v>5266.419819999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>435.21208</v>
+        <v>19770.46796</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>175.01678</v>
+        <v>2105.8541</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>15.26997</v>
+        <v>64145.33973</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>189.2935</v>
+        <v>3180.57924</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>666.5643999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>17650.28504</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>20780.703</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2793.12965</v>
+        <v>18539.42069</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2647.14904</v>
+        <v>18929.90952</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3360.86259</v>
+        <v>31435.81703</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4220.74829</v>
+        <v>44448.60324</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4115.10243</v>
+        <v>43219.22655000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4800.93834</v>
+        <v>49343.00815</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5096.65475</v>
+        <v>55649.17425</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8121.60151</v>
+        <v>57074.82044</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5700.464319999999</v>
+        <v>85033.40459999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>24660.29227</v>
+        <v>116234.87397</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>21985.34985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>125640.22295</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>128785.416</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1316.93987</v>
+        <v>1995.22103</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1309.5513</v>
+        <v>1722.25691</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1763.05744</v>
+        <v>2108.48459</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1343.36391</v>
+        <v>1675.69838</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1568.78963</v>
+        <v>1942.5167</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1115.86429</v>
+        <v>1801.65645</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1388.41136</v>
+        <v>1876.19311</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1221.51706</v>
+        <v>1380.4959</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>929.88644</v>
+        <v>1292.75031</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1744.15032</v>
+        <v>1745.01664</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2647.690009999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2762.37852</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3506.826</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>484.35901</v>
+        <v>485.23821</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>876.56982</v>
+        <v>1190.11931</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>180.58945</v>
+        <v>647.82525</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>80.31766</v>
+        <v>895.68388</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>175.75104</v>
+        <v>743.87513</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>435.26695</v>
+        <v>646.68036</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>210.39588</v>
+        <v>650.66637</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>717.5219599999999</v>
+        <v>5375.473019999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>626.8889</v>
+        <v>4933.90651</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>460.0399</v>
+        <v>2085.79791</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>574.98289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>905.84933</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4360.322</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>327.45586</v>
+        <v>1087.93711</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>308.18015</v>
+        <v>460.28227</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>510.82822</v>
+        <v>761.6343099999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>319.05613</v>
+        <v>2089.48725</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>324.83904</v>
+        <v>715.52782</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>429.54473</v>
+        <v>109086.70676</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>430.74956</v>
+        <v>1194.87749</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>635.9489800000001</v>
+        <v>11308.76208</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>601.3990799999999</v>
+        <v>33754.45733</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>980.82814</v>
+        <v>5110.565759999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4864.716260000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10063.10806</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>15412.973</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2829.55512</v>
+        <v>20493.87507</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3686.735410000001</v>
+        <v>45147.51844000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5345.273520000001</v>
+        <v>107679.18146</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2128.26295</v>
+        <v>69520.16047999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4651.6911</v>
+        <v>116078.82201</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2782.58701</v>
+        <v>137462.67541</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8204.036620000001</v>
+        <v>183118.65147</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>21011.17674</v>
+        <v>218257.33375</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8856.067849999999</v>
+        <v>261003.96492</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>57237.89290000001</v>
+        <v>1010500.75312</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>31189.12395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>457759.85766</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>678472.544</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>149.12739</v>
+        <v>325.32271</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>32.468</v>
+        <v>94.18232</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>126.45307</v>
+        <v>204.76657</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>39.02635</v>
+        <v>1525.52132</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>87.35852</v>
+        <v>3224.788</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>37.51436</v>
+        <v>39.0654</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>9.86317</v>
+        <v>108.54342</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>20.96072</v>
+        <v>456.89544</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>241.99031</v>
+        <v>343.4544399999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>130.74383</v>
+        <v>257.66154</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>149.51181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>198.56609</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>447.822</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>161.15099</v>
+        <v>162.56507</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>363.66327</v>
+        <v>367.43905</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>163.15602</v>
+        <v>185.74307</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>236.36259</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>82.19154</v>
+        <v>261.47131</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>119.11737</v>
+        <v>331.80666</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>36.24232</v>
+        <v>202.6896</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4.91923</v>
+        <v>366.48169</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>201.66618</v>
+        <v>239.479</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>225.31453</v>
+        <v>1326.10537</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>202.07191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>304.0719100000001</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>330.017</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>11575.21254</v>
+        <v>41187.13404</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>11429.89152</v>
+        <v>43505.29158</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>14917.95711</v>
+        <v>56457.76524000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16638.70438</v>
+        <v>54192.34383</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>18308.5795</v>
+        <v>99462.65745</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>15748.2259</v>
+        <v>66325.60054</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19015.19513</v>
+        <v>122321.52038</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>25855.22406</v>
+        <v>114312.10765</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>28647.34537</v>
+        <v>160886.31411</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49074.81796</v>
+        <v>294946.31937</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>64241.69709</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>275403.28799</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>303476.601</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>10578.83195</v>
+        <v>35400.69057</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11351.38068</v>
+        <v>48791.50964</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17003.81179</v>
+        <v>151408.41645</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>13458.17271</v>
+        <v>81884.22835</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>18168.35768</v>
+        <v>209521.76098</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>15676.9519</v>
+        <v>218115.23044</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18349.49037</v>
+        <v>339270.1746200001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>35654.09307</v>
+        <v>342340.27501</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>24813.49542</v>
+        <v>399189.7880000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>96226.51151999999</v>
+        <v>1467654.75528</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>75279.77806</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>698687.2988399999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1376212.393</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1472.11261</v>
+        <v>1747.48378</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2078.11888</v>
+        <v>2491.43474</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2689.8126</v>
+        <v>3335.05649</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3147.159729999999</v>
+        <v>4269.844050000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3383.79613</v>
+        <v>4401.788320000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4931.13667</v>
+        <v>5703.690030000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6280.76847</v>
+        <v>7160.40832</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5903.31683</v>
+        <v>7101.997880000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5456.171989999999</v>
+        <v>6804.758559999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>11920.734</v>
+        <v>12429.60558</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>16931.57676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>18369.83299</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19669.435</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>924.48487</v>
+        <v>1554.19739</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>807.2654099999999</v>
+        <v>1199.80317</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>887.42698</v>
+        <v>15994.01799</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3029.56124</v>
+        <v>8951.293649999998</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1735.04685</v>
+        <v>2773.80008</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1177.91712</v>
+        <v>1970.57527</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1477.37099</v>
+        <v>5750.261540000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3489.01969</v>
+        <v>6369.500129999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1949.76088</v>
+        <v>4159.30504</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1378.65289</v>
+        <v>24669.00873</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5003.4073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9400.03213</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>19920.282</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>120.87849</v>
+        <v>210.96932</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>104.93622</v>
+        <v>160.97556</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2132.865659999999</v>
+        <v>2167.85419</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>96.08266999999999</v>
+        <v>2526.73607</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4305.750940000001</v>
+        <v>4345.578030000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>250.66088</v>
+        <v>10639.29998</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>61.99668</v>
+        <v>149.1133</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>67.57297</v>
+        <v>183.65363</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>69.33574</v>
+        <v>1211.7264</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>524.18285</v>
+        <v>2443.3594</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>217.81839</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>9597.770550000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>39225.851</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2905.30936</v>
+        <v>22549.44846</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3213.77792</v>
+        <v>29304.01397</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4150.61172</v>
+        <v>114103.61126</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2216.81856</v>
+        <v>53801.13164</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3421.91712</v>
+        <v>180108.86174</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2624.7705</v>
+        <v>186872.59059</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4766.42915</v>
+        <v>308762.57416</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19423.09968</v>
+        <v>308257.25415</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9018.55596</v>
+        <v>356239.47006</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>69117.31478</v>
+        <v>1396613.66222</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>36481.81157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>572541.96791</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1243827.941</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>285.01521</v>
+        <v>285.1686100000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>15.14969</v>
+        <v>16.24216</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>36.01434</v>
+        <v>2649.14879</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0.5091</v>
+        <v>77.25744999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0.24084</v>
+        <v>0.29191</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>78.80902999999999</v>
+        <v>112.82997</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>10.3065</v>
+        <v>22.7628</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>8.281079999999999</v>
+        <v>305.16114</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1.42839</v>
+        <v>43.37708</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>31.12305</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>7.58929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>138.30468</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>494.471</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>122.71408</v>
+        <v>1541.44355</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>129.60253</v>
+        <v>1460.62636</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>218.94409</v>
+        <v>1549.96784</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>141.39698</v>
@@ -2408,610 +2499,688 @@
         <v>224.54075</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>74.03336999999999</v>
+        <v>74.87158000000001</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>83.04586000000002</v>
+        <v>332.9001900000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>44.34202</v>
+        <v>45.25715</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>3.03326</v>
+        <v>40.08009</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>6.430770000000001</v>
+        <v>209.64409</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>277.22542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1204.60807</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>20.557</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4748.31733</v>
+        <v>7511.97946</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5002.53003</v>
+        <v>14158.41368</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6888.1364</v>
+        <v>11608.75989</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4826.644429999999</v>
+        <v>12116.56851</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5097.065049999999</v>
+        <v>17666.90015</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6539.62433</v>
+        <v>12741.37302</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5669.57272</v>
+        <v>17092.15431</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6718.460800000001</v>
+        <v>20077.45093</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8315.209199999999</v>
+        <v>30691.07077</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13248.07318</v>
+        <v>31258.35221</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>16360.34933</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>87434.78251</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>53053.856</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>19285.9134</v>
+        <v>42767.40288</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>17813.72072</v>
+        <v>37886.43764</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>21220.49659</v>
+        <v>74803.75033</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>25532.16632</v>
+        <v>85316.25341</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>24213.69327</v>
+        <v>190128.53608</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>27093.95581</v>
+        <v>166754.72769</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>32792.37909</v>
+        <v>295193.63729</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>48292.68117999999</v>
+        <v>377356.02261</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>47711.3579</v>
+        <v>354849.83553</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>114782.01521</v>
+        <v>865931.12333</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>147991.6883</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>446481.24106</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>566910.439</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>18473.72741</v>
+        <v>38308.77778</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>16942.01085</v>
+        <v>34368.72567</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19669.74528</v>
+        <v>62562.90436</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>23970.1452</v>
+        <v>74643.50262</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>22939.00482</v>
+        <v>93885.39017999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>25844.01436</v>
+        <v>106568.24908</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>31320.36317</v>
+        <v>135644.99173</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>46324.98819</v>
+        <v>199792.77297</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>45211.52339</v>
+        <v>236940.8314</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>108959.45156</v>
+        <v>420343.32432</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>141138.63695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>361467.38701</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>425751.167</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>812.1859900000001</v>
+        <v>4458.6251</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>871.70987</v>
+        <v>3517.71197</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1550.75131</v>
+        <v>12240.84597</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1562.02112</v>
+        <v>10672.75079</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1274.68845</v>
+        <v>96243.1459</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1249.94145</v>
+        <v>60186.47861</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1472.01592</v>
+        <v>159548.64556</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1967.69299</v>
+        <v>177563.24964</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2499.83451</v>
+        <v>117909.00413</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5822.56365</v>
+        <v>445587.79901</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6853.051350000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>85013.85404999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>141159.272</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-36469.22343999999</v>
+        <v>-51640.98848</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-42826.81613</v>
+        <v>-58315.19004</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-79871.44179</v>
+        <v>-147234.9208</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-97543.45315</v>
+        <v>-103446.28723</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-139804.89829</v>
+        <v>-330430.98848</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-172947.15484</v>
+        <v>-265271.07645</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-250540.18716</v>
+        <v>-593186.6375899999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-371408.13175</v>
+        <v>-792013.71499</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-334016.16236</v>
+        <v>-637202.0822300001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-345316.05895</v>
+        <v>-1245894.18664</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-390117.66139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-582343.91655</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1675719.504</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>25691.59988</v>
+        <v>68522.27521000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>17426.37511</v>
+        <v>51610.72525999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>22417.01725</v>
+        <v>43335.52527000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>28023.88804</v>
+        <v>83240.47482999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25068.94311</v>
+        <v>89945.55091999998</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26888.38222</v>
+        <v>139051.77173</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>31929.24691</v>
+        <v>134305.00325</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>54883.01228</v>
+        <v>225714.87536</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>64354.19057999999</v>
+        <v>178476.82975</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>97272.29767</v>
+        <v>313565.7916200001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>123086.81293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>385703.2915</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>338079.112</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>441.3313</v>
+        <v>540.76935</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>309.13084</v>
+        <v>479.01882</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>309.95507</v>
+        <v>1175.94173</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1131.7462</v>
+        <v>1608.42842</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>702.9446400000002</v>
+        <v>932.08073</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>712.5775500000001</v>
+        <v>918.17456</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>647.3355300000001</v>
+        <v>2253.74433</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>772.5743</v>
+        <v>1373.7006</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1392.46379</v>
+        <v>4764.78192</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6314.614009999999</v>
+        <v>17806.34088</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1093.3041</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1761.4509</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2734.776</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>25250.26858</v>
+        <v>67981.50586</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17117.24427</v>
+        <v>51131.70643999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>22107.06218</v>
+        <v>42159.58354</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>26892.14184</v>
+        <v>81632.04641</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24365.99847</v>
+        <v>89013.47018999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26175.80467</v>
+        <v>138133.59717</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>31281.91138</v>
+        <v>132051.25892</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>54110.43798</v>
+        <v>224341.17476</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>62961.72679</v>
+        <v>173712.04783</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>90957.68366</v>
+        <v>295759.45074</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>121993.50883</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>383941.8406</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>335344.336</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37556.09791</v>
+        <v>53297.06266000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>29964.48054</v>
+        <v>59755.74344000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>141132.4168</v>
+        <v>258483.53586</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>41867.02612</v>
+        <v>75413.95465</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>39248.7953</v>
+        <v>71932.96405000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>78652.01798999999</v>
+        <v>198374.97924</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>55231.56908000001</v>
+        <v>115884.67041</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>145082.84267</v>
+        <v>259557.16747</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>70999.66048000001</v>
+        <v>154740.85552</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>188074.2303</v>
+        <v>439757.21674</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>119240.98893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>343812.93296</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>381199.448</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>932.18152</v>
+        <v>2101.27967</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1058.80007</v>
+        <v>7251.603869999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1335.2176</v>
+        <v>1719.27999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1069.97676</v>
+        <v>2032.44143</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6093.613270000001</v>
+        <v>6771.639990000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1443.79054</v>
+        <v>6143.80323</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1793.96025</v>
+        <v>7876.44335</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2208.21701</v>
+        <v>6085.98758</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2837.06629</v>
+        <v>4442.23397</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2610.18327</v>
+        <v>3705.70193</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3474.77595</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6662.89745</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7102.47</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4637.887299999999</v>
+        <v>5842.11067</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5990.668199999999</v>
+        <v>8704.651790000002</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3900.19516</v>
+        <v>5392.222070000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4785.68741</v>
+        <v>6415.42764</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3841.08927</v>
+        <v>5684.24846</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3274.19344</v>
+        <v>4782.623600000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3864.67826</v>
+        <v>14889.05262</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6802.15089</v>
+        <v>13310.19243</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4680.72796</v>
+        <v>7315.28937</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7078.58041</v>
+        <v>28214.80401</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6337.119439999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7275.91708</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>20686.234</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>31986.02909</v>
+        <v>45353.67232</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>22915.01227</v>
+        <v>43799.48778</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>135897.00404</v>
+        <v>251372.0338</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>36011.36195</v>
+        <v>66966.08558</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29314.09276</v>
+        <v>59477.0756</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>73934.03401</v>
+        <v>187448.55241</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>49572.93057</v>
+        <v>93119.17444</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>136072.47477</v>
+        <v>240160.98746</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>63481.86623000001</v>
+        <v>142983.33218</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>178385.46662</v>
+        <v>407836.7108</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>109429.09354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>329874.11843</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>353410.744</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-48333.72147</v>
+        <v>-36415.77593</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-55364.92156</v>
+        <v>-66460.20821999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-198586.84134</v>
+        <v>-362382.93139</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-111386.59123</v>
+        <v>-95619.76704999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-153984.75048</v>
+        <v>-312418.40161</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-224710.79061</v>
+        <v>-324594.28396</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-273842.50933</v>
+        <v>-574766.30475</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-461607.96214</v>
+        <v>-825856.0070999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-340661.63226</v>
+        <v>-613466.108</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-436117.99158</v>
+        <v>-1372085.61176</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-386271.83739</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-540453.55801</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1718839.84</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>18073.88687</v>
+        <v>24048.52046</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>20221.6749</v>
+        <v>26504.89553</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>21863.9893</v>
+        <v>34577.91671</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>22818.00459</v>
+        <v>33856.95637000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>22682.22556</v>
+        <v>37413.00814</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>23638.0792</v>
+        <v>39482.55308</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>24111.39254</v>
+        <v>45278.79208000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>24872.25501</v>
+        <v>46814.21095</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>29617.89727</v>
+        <v>58256.06763000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>66488.32463999999</v>
+        <v>122683.22792</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>84566.55871</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>133223.71204</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>135619.909</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-66407.60834000001</v>
+        <v>-60464.29639</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-75586.59646000002</v>
+        <v>-92965.10374999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-220450.83064</v>
+        <v>-396960.8481</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-134204.59582</v>
+        <v>-129476.72342</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-176666.97604</v>
+        <v>-349831.40975</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-248348.86981</v>
+        <v>-364076.83704</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-297953.90187</v>
+        <v>-620045.0968299999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-486480.21715</v>
+        <v>-872670.2180499999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-370279.5295300001</v>
+        <v>-671722.1756300001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-502606.31622</v>
+        <v>-1494768.83968</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-470838.3961</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-673677.2700499999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1854459.749</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>16353</v>
+        <v>17102</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>17105</v>
+        <v>18027</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>17373</v>
+        <v>18305</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>17363</v>
+        <v>18517</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>17963</v>
+        <v>19352</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>18352</v>
+        <v>19996</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>19074</v>
+        <v>21085</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>20672</v>
+        <v>23212</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>22747</v>
+        <v>25405</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>26199</v>
+        <v>28981</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>28201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>32682</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>35864</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>